--- a/biology/Botanique/Flore_de_Djibouti/Flore_de_Djibouti.xlsx
+++ b/biology/Botanique/Flore_de_Djibouti/Flore_de_Djibouti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La flore de Djibouti est composée de 783 espèces indigènes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La flore de Djibouti est composée de 783 espèces indigènes.
 Cette flore possède des affinités phytogéographiques notamment avec la flore d'Arabie, de Somalie, d’Éthiopie mais également méditerranéenne, avec des espèces comme Helianthemum stipulatum.
-La flore de Djibouti est encore assez mal connue et de nouvelles espèces  sont encore régulièrement découvertes sur ce territoire, comme ce fut le cas avec des espèces d'aloès en 2007[2]. D'autres espèces sont encore à découvrir et à décrire comme Caralluma oubronii nom. prov. qui fut récolté près d'Arta en 1978 par John Lavranos et Len Newton[3].
-De nombreuses espèces et de nombreux milieux naturels de ce pays sont notamment menacés par le changement climatique et le sur-pâturage. Les espèces végétales endémiques et menacées d’extinctions sont notamment protégées par la législation nationale [4]. Djibouti comprend actuellement 11 espèces endémiques[1],[5],[6],[7],[8],[9]: Aloe ericahenriettae, Caralluma mireillae, Cynoglossopsis somaliensis, Echidnopsis hirsuta, Euphorbia amicorum, Euphorbia godana, Matthiola puntensis, Phagnalon lavranosii, Polygala goudahensis, Taverniera oligantha et Volutaria djiboutensis. Une meilleure connaissance de la flore de la Corne de l'Afrique permettra probablement de mieux définir le statut de certaines espèces, comme pour Aloe djiboutiensis qui fut récolté à Djibouti avant d'être découvert récemment en Érythrée voisine[6].
+La flore de Djibouti est encore assez mal connue et de nouvelles espèces  sont encore régulièrement découvertes sur ce territoire, comme ce fut le cas avec des espèces d'aloès en 2007. D'autres espèces sont encore à découvrir et à décrire comme Caralluma oubronii nom. prov. qui fut récolté près d'Arta en 1978 par John Lavranos et Len Newton.
+De nombreuses espèces et de nombreux milieux naturels de ce pays sont notamment menacés par le changement climatique et le sur-pâturage. Les espèces végétales endémiques et menacées d’extinctions sont notamment protégées par la législation nationale . Djibouti comprend actuellement 11 espèces endémiques: Aloe ericahenriettae, Caralluma mireillae, Cynoglossopsis somaliensis, Echidnopsis hirsuta, Euphorbia amicorum, Euphorbia godana, Matthiola puntensis, Phagnalon lavranosii, Polygala goudahensis, Taverniera oligantha et Volutaria djiboutensis. Une meilleure connaissance de la flore de la Corne de l'Afrique permettra probablement de mieux définir le statut de certaines espèces, comme pour Aloe djiboutiensis qui fut récolté à Djibouti avant d'être découvert récemment en Érythrée voisine.
 </t>
         </is>
       </c>
@@ -514,10 +526,48 @@
           <t>Liste des espèces indigènes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette liste de plantes indigènes est basée sur la flore de la république de Djibouti[1], ainsi que sur différentes publications récentes[5],[10],[6],[3],[11]. La nomenclature a été retravaillé selon APGIII[12], the Plant List[13] et Base de données des plantes d'Afrique (version 3.4.0)[14]. Cette liste ne comprend pas les Poacée ainsi que les espèces introduites et les plantes cultivées.
-Acanthaceae
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette liste de plantes indigènes est basée sur la flore de la république de Djibouti, ainsi que sur différentes publications récentes. La nomenclature a été retravaillé selon APGIII, the Plant List et Base de données des plantes d'Afrique (version 3.4.0). Cette liste ne comprend pas les Poacée ainsi que les espèces introduites et les plantes cultivées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Acanthaceae</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Avicennia marina (Forssk.) Vierh.
 Barleria acanthoides Vahl
 Barleria grantii Oliv.
@@ -552,14 +602,86 @@
 Ruttya fruticosa Lindau
 Thunbergia alata Bojer ex Sims
 Thunbergia erythraeae  Schweinf. ex Lindau
-Aizoaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Aizoaceae</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Aizoon canariense L.
 Sesuvium sesuvioides (Fenzl) Verdc.
 Trianthema crystallina Vahl
 Trianthema portulacastrum L.
 Trianthema triquetra Rottler &amp; Willd.
 Zaleya pentandra (L.) Jeffrey
-Amaranthaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Amaranthaceae</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Achyranthes aspera var. sicula L.
 Aerva javanica (Burm.f.) Juss. ex Schult.
 Aerva lanata (L.) Juss.
@@ -591,23 +713,167 @@
 Suaeda aegyptiaca (Hasselq.) Zohary
 Suaeda monoica Forssk.
 Suaeda vermiculata Forssk. ex J.F.Gmel.
-Amaryllidaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Amaryllidaceae</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Allium subhirsutum L.
 Scadoxus multiflorus (Martyn) Raf.
-Anacardiaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Anacardiaceae</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Lannea triphylla Engl.
 Ozoroa insignis Delile
 Pistacia falcata Becc. ex Martelli
 Rhus abyssinica Hochst. ex Oliv.
 Rhus natalensis Bernh. ex C.Krauss
 Rhus retinorrhaea Steud. ex A.Rich.
-Apiaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Apiaceae</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Bupleurum semicompositum L.
 Ferula communis L.
 Psammogeton canescens (DC.) Vatke
 Steganotaenia araliacea Hochst.
 Torilis arvensis (Huds.) Link
-Apocynaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Apocynaceae</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acokanthera schimperi (A.DC.) Schweinf.
 Angolluma kochii (Lavranos) Plowes
 Angolluma sacculata (N.E.Br.) Plowes
@@ -642,14 +908,122 @@
 Pergularia tomentosa L.
 Pergularia tomentosa L.
 Sarcostemma viminale (L.) R.Br.
-Arecaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Arecaceae</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Hyphaene thebaica (L.) Mart.
 Livistona carinensis (Chiov.) J.Dransf. &amp; N.W.Uhl
 Phoenix dactylifera L.
 Phoenix reclinata Jacq.
-Aristolochiaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Aristolochiaceae</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Aristolochia bracteolata Lam.
-Asparagaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Asparagaceae</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Asparagus africanus Lam.
 Asparagus asiaticus L.
 Dipcadi viride (L.) Moench
@@ -658,7 +1032,43 @@
 Ledebouria revoluta (L.f.) Jessop.
 Sansevieria ehrenbergii Schweinf. ex Baker
 Sansevieria forskaliana (Schult. &amp; Schult.f.) Hepper &amp; J.R.I.Wood
-Asphodelaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Asphodelaceae</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Aloe ericahenriettae T.A.McCoy,
 Aloe eumassawana S.Carter, M.G.Gilbert &amp; Sebsebe
 Aloe djiboutiensis T.A.McCoy
@@ -666,11 +1076,83 @@
 Aloe mcloughlinii Chistian
 Aloe rigens Reynolds &amp; Bally
 Aloe trichosantha A.Berger
-Aspleniaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Aspleniaceae</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Asplenium aethiopicum (Burm. f.) Bech.
 Asplenium praemorsum Sw.
 Ceterach officinarum DC.
-Asteraceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Aspilia helianthoides subsp. ciliata (Schumach.) C.D.Adams
 Bidens biternata (Lour.) Merr. &amp; Sherff
 Bidens pilosa L.
@@ -733,13 +1215,121 @@
 Volutaria lippii (L.) Cass. ex Maire
 Volutaria somalensis (Oliv. &amp; Hiern) C.Jeffrey ex Cuf.
 Xanthium strumarium L.
-Balanitaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Balanitaceae</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Balanites aegyptiaca (L.) Delile
 Balanites rotundifolia (Tiegh.) Blatt.
-Bignoniaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Bignoniaceae</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Stereospermum kunthianum Cham.
 Rhigozum somalense Hallier f.
-Boraginaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Boraginaceae</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Arnebia hispidissima (Lehm.) A.DC.
 Coldenia procumbens L.
 Cordia monoica Roxb.
@@ -763,7 +1353,43 @@
 Lithospermum afromontanum Weim.
 Trichodesma ehrenbergii Schweinf. ex Boiss.
 Trichodesma trichodesmoides Gürke
-Brassicaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Brassicaceae</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Arabidopsis thaliana (L.) Heynh.
 Capsella bursa-pastoris (L.) Medik.
 Cardamine trichocarpa Hochst. ex A.Rich.
@@ -780,7 +1406,43 @@
 Raphanus raphanistrum L.
 Schouwia purpurea (Forssk.) Schweinf.
 Sisymbrium erysimoides Desf.
-Burseraceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Burseraceae</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Commiphora africana (A.Rich.) Endl.
 Commiphora allophylla Sprague
 Commiphora erythraea (Ehrenb.) Engl.
@@ -790,13 +1452,121 @@
 Commiphora kua (R.Br. ex Royle) Vollesen
 Commiphora myrrha (Nees) Engl.
 Commiphora samharensis Schweinf.
-Buxaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Buxaceae</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Buxus hildebrandtii Baill.
-Campanulaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Campanulaceae</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Campanula edulis Forssk.
 Campanula erinus L.
 Wahlenbergia lobelioides (L.f.) Link
-Capparaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Capparaceae</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Boscia angustifolia A.Rich.
 Boscia coriacea Pax
 Boscia senegalensis (Pers.) Lam. ex Poir.
@@ -813,7 +1583,43 @@
 Maerua decumbens (Brongn.) DeWolf
 Maerua oblongifolia (Forssk.) A.Rich.
 Maerua triphylla var. calophylla (Gilg) DeWolf
-Caryophyllaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Caryophyllaceae</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Arenaria foliacea Turrill
 Arenaria serpyllifolia L.
 Cometes abyssinica R.Br. ex Wall.
@@ -827,14 +1633,122 @@
 Silene burchellii Otth
 Stellaria media (L.) Vill.
 Velezia rigida L.
-Celastraceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Celastraceae</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Catha edulis (Vahl) Endl.
 Maytenus arbutifolia (Hochst. ex A.Rich.) R.Wilczek
 Maytenus senegalensis (Lam.) Exell
 Maytenus undata (Thunb.) Blakelock
-Cistaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Cistaceae</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Helianthemum stipulatum (Forssk.) C.Chr.
-Cleomaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Cleomaceae</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cleome angustifolia Forssk.
 Cleome brachycarpa Vahl ex DC.
 Cleome brachystyla Deflers ex Franch.
@@ -845,23 +1759,167 @@
 Cleome ramosissina Parl. ex Webb
 Cleome scaposa DC.
 Cleome schweinfurthii Gilg
-Colchicaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Colchicaceae</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Androcymbium schimperianum (Hochst.) K.Perss.
 Gloriosa revoilii (Franch.) J.C.Manning &amp; Vinn.
 Iphigenia oliveri Engl.
-Combretaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Combretaceae</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Combretum aculeatum Vent.
 Conocarpus lancifolius Engl. ex Engl. &amp; Diels
 Combretum molle R.Br. ex G.Don
 Terminalia avicennioides Guill. &amp; Perr.
 Terminalia brownii Fresen
-Commelinaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Commelinaceae</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Aneilema forsskalii Kunth
 Commelina africana L.
 Commelina albescens Hassk.
 Commelina benghalensis L.
 Commelina forskalaei Vahl
-Convolvulaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Convolvulaceae</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cladostigma dioicum Radlk.
 Convolvulus auricomus (A.Rich.) Bhandari
 Convolvulus hystrix Vahl
@@ -877,11 +1935,83 @@
 Seddera arabica Choisy
 Seddera bagshawei Rendle
 Seddera latifolia Hochst. &amp; Steud.
-Crassulaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Crassulaceae</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Aeonium leucoblepharum Webb ex A.Rich.
 Kalanchoe glaucescens Britten
 Umbilicus botryoides Hochst. ex A.Rich.
-Cucurbitaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Cucurbitaceae</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Citrullus colocynthis (L.) Schrad.
 Coccinia grandis (L.) Voigt
 Corallocarpus epigaeus (Rottler) C.B.Clarke
@@ -893,16 +2023,160 @@
 Luffa cylindrica (L.) M.Roem.
 Momordica foetida Schumach.
 Momordica pterocarpa A.Rich.
-Cupressaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Cupressaceae</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Juniperus procera Hochst. ex Endl.
-Ephedraceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Ephedraceae</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ephedra foemina Forssk.
 Ephedra foliata Boiss. ex C.A. Mey.
 Ephedra somalensis Freitag &amp; Maier-St.
-Ebenaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Ebenaceae</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Euclea divinorum Hiern
 Euclea schimperi (A. DC.) Dandy
-Euphorbiaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Euphorbiaceae</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acalypha ciliata Forssk.
 Acalypha fruticosa Forssk.
 Acalypha indica L.
@@ -939,7 +2213,43 @@
 Ricinus communis L.
 Tragia plukenetii Radcl.-Sm.
 Tragia pungens (Forssk.) Müll.Arg.
-Fabaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Fabaceae</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acacia asak (Forssk.) Willd.
 Acacia ehrenbergiana Hayne
 Acacia etbaica Schweinf.
@@ -1017,18 +2327,198 @@
 Vigna frutescens A.Rich.
 Vigna membranacea subsp. caesia (Chiov.) Verdc.
 Vigna membranacea subsp. membranacea A.Rich.
-Geraniaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Geraniaceae</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Geranium favosum Hochst. ex A. Rich.
 Geranium mascatense Boiss.
 Geranium ocellatum Cambess.
 Geranium trilophum Boiss.
-Gisekiaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Gisekiaceae</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Gisekia pharnaceoides  L.
-Hernandiaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Hernandiaceae</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Gyrocarpus hababensis Chiov.
-Iridaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Iridaceae</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Gladiolus candidus (Rendle) Goldblatt
-Lamiaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Lamiaceae</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Clinopodium abyssinicum (Benth.) Kuntze
 Endostemon tenuiflorus (Benth.) M.R.Ashby
 Lavandula coronopifolia Poir.
@@ -1058,27 +2548,315 @@
 Rotheca myricoides var. discolor  (Klotzsch) Verdc.
 Scutellaria arabica Jaub. &amp; Spach
 Teucrium yemense Deflers
-Linaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Linaceae</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Linum strictum L.
-Loasaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Loasaceae</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Kissenia arabica R. Br. ex Chiov.
-Lophiocarpaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Lophiocarpaceae</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Corbichonia decumbens (Forssk.) Exell
-Loranthaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Loranthaceae</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Oncocalyx schimperi (Hochst. ex A. Rich.) M. G. Gilbert
 Plicosepalus curviflorus (Benth. ex Oliv.) Tiegh.
 Plicosepalus nummulariifolius (Franch.) Wiens &amp; Polhill
 Tapinanthus globiferus (A. Rich.) Tiegh.
-Lythraceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Lythraceae</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ammania baccifera L.
 Woodfordia uniflora (A. Rich.) Koehne
-Menispermaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Menispermaceae</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cocculus pendulus (J.R.Forst. &amp; G.Forst.) Diels
-Molluginaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Molluginaceae</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Glinus lotoides L.
 Mollugo cerviana (L.) Ser. ex DC.
 Mollugo nudicaulis Lam.
-Malvaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Malvaceae</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Abutilon bidentatum Hochst. ex A.Rich.
 Abutilon fruticosum Guill. &amp; Perr.
 Abutilon hirtum (Lam.) Sweet
@@ -1109,7 +2887,43 @@
 Sida alba L.
 Sida ovata Forssk.
 Triumfetta flavescens Hochst. ex A.Rich.
-Moraceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Moraceae</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Dorstenia foetida Schweinf.
 Ficus abutilifolia (Miq.) Miq.
 Ficus cordata Thunb.
@@ -1122,11 +2936,119 @@
 Ficus sycomorus L.
 Ficus thonningii Blume
 Ficus vasta Forssk.
-Moringaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Moringaceae</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Moringa peregrina (Forssk.) Fiori
-Myrsinaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Myrsinaceae</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Maesa lanceolata Forssk.
-Nyctignaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Nyctignaceae</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Boerhavia ambigua (Meikle) Govaerts
 Boerhavia coccinea Mill.
 Boerhavia diffusa L.
@@ -1134,37 +3056,469 @@
 Boerhavia helenae Roem. &amp; Schult.
 Boerhavia squarrosa Heimerl
 Commicarpus grandiflorus (A.Rich.) Standl.
-Olacaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Olacaceae</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ximenia americana L.
-Oleaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Oleaceae</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Jasminum grandiflorum subsp. floribundum (R.Br. ex Fresen.)P.S.Green
 Olea europaea subsp. cuspidata (Wall. &amp; G.Don) Cif.
-Ophioglossaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Ophioglossaceae</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ophioglossum polyphyllum A.Braun
-Orchidaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Orchidaceae</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Eulophia petersii  (Rchb. f.) Rchb. f.
 Holothrix arachnoidea (A.Rich.) Rchb.f.
-Orobanchaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Orobanchaceae</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cistanche phelypaea (L.) Cout.
 Orobanche abyssinica A.Rich.
 Striga hermonthica (Delile) Benth.
-Oxalidaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Oxalidaceae</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Oxalis corniculata L.
-Papaveraceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Papaveraceae</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Fumaria abyssinica Hammar
 Papaver dubium L.
-Passifloraceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Passifloraceae</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Adenia venenata Forssk.
-Pittosporaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Pittosporaceae</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Pittosporum viridiflorum  Sims
-Polygonaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Polygonaceae</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Oxygonum sinuatum (Hochst. &amp; Steud ex Meisn.) Dammer
 Rumex vesicarius L.
-Portulacaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Portulacaceae</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Portulaca oleracea L.
 Portulaca quadrifida L.
 Talinum caffrum (Thunb.) Eckl. &amp; Zeyh.
-Pteridaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Pteridaceae</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Actiniopteris semiflabellata Pic. Serm.
 Actiniopteris radiata (Sw.) Link
 Adiantum balfourii Bak.in Hk.
@@ -1175,7 +3529,43 @@
 Anogramma leptophylla (L.) Link
 Onychium divaricatum (Poir.) Alston
 Pteris vittata L.
-Plantaginaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Plantaginaceae</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Campylanthus junceus Edgew.
 Kickxia asparagoides (Schweinf.) Cufod.
 Kickxia hastata (R.Br. ex Benth.) Dandy
@@ -1187,32 +3577,284 @@
 Plantago lanceolata L.
 Schweinfurthia pterosperma A.Braun
 Veronica anagallis-aquatica L.
-Plumbaginaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Plumbaginaceae</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Limonium axillare (Forssk.) Kuntze
 Limonium cylindrifolium (Forssk.) Verdc.
 Plumbago zeylanica L.
-Polygalaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Polygalaceae</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Polygala abyssinica R.Br. ex Fresen.
 Polygala erioptera DC.
 Polygala goudahensis Paiva
 Polygala irregularis Boiss.
 Polygala obtusissima  Hochst. ex Chodat
 Polygala senensis Klotzsch
-Ranunculaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Ranunculaceae</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Clematis hirsuta Guill. &amp; Perr.
 Delphinium dasycaulon Fresen.
-Resedaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Resedaceae</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Reseda amblycarpa Fresen.
-Rhamnaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Rhamnaceae</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Rhamnus staddo A. Rich.
 Ziziphus abyssinicav  Hochst.
 Ziziphus mucronata Willd.
 Ziziphus spina-christi var. microphylla Hochst.
-Rhizophoraceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Rhizophoraceae</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Bruguiera gymnorhiza (L.) Lam.
 Ceriops tagal (Perr.) C.B.Rob.
 Rhizophora mucronata Lam.
-Rubiaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Rubiaceae</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Coptosperma graveolens  (S. Moore) Degreef
 Galium acrophyum  Hochst. ex Chiov.
 Galium setaceum subsp. decaisnei  (Boiss.) Ehrend.
@@ -1222,25 +3864,205 @@
 Pentanisia longituba  (Franch.) Oliv.
 Pentas lanceolata  (Forssk.) Deflers
 Valantia hispida  L.
-Rutaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Rutaceae</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Vepris glomerata Engl.
 Vepris nobilis (Delile) Mziray
-Salvadoraceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Salvadoraceae</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Dobera glabra (Forssk.) Juss. ex Poir.
 Salvadora persica L.
-Sapindaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Sapindaceae</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cardiospermum corindum L.
 Dodonaea viscosa (L.) Jacq.
 Dodonaea viscosa  var. angustifolia (L. f.) Benth.
 Mimusops laurifolia  (Forssk.) Friis
 Pappea capensis  Eckl. &amp; Zeyh.
 Sideroxylon mascatense  (A.DC.) T.D.Penn.
-Scrophulariaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Scrophulariaceae</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Anticharis arabica Endl.
 Anticharis glandulosa Asch.
 Lindenbergia indica (L.) Vatke
 Scrophularia arguta Aiton
-Solanaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Solanaceae</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Datura innoxia Mill.
 Lycium shawii Roem. &amp; Schult.
 Nicandra physalodes (L.) Gaertn.
@@ -1258,24 +4080,276 @@
 Solanum uollense Pic.Serm.
 Solanum villosum Mill.
 Withania grisea (Hepper &amp; Boulos) Thulin
-Sterculiaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sterculiaceae</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Dombeya torrida (J.F.Gmel.) Bamps
 Melhania stipulosa J.R.I.Wood
 Sterculia africana (Lour.) Fiori
-Stilbaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Stilbaceae</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Nuxia oppositifolia  (Hochst.) Benth.
-Tamaricaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Tamaricaceae</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Tamarix aphylla (L.) H. Karst.
 Tamarix nilotica (Ehrenb.) Bunge
-Ulmaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Ulmaceae</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Trema orientalis  (L.) Blume
-Urticaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Urticaceae</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Forsskaolea tenacissima L.
 Forsskaolea viridis Ehrenb. ex Desf.
 Parietaria debilis G.Forst.
-Vahliaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Vahliaceae</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Vahlia geminiflora (Delile) Bridson
-Verbenaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Verbenaceae</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Chascanum hildebrandtii Fenzl ex Walp.
 Chascanum marrubiifolium Fenzl ex Walp.
 Lantana petitiana A.Rich.
@@ -1286,16 +4360,124 @@
 Priva adhaerens  (Forssk.) Chiov.
 Priva meyeri  Jaub. &amp; Spach
 Priva tenax  Verdc.
-Vitaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Vitaceae</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cissus quadrangularis L.
 Cissus rotundifolia Vahl
 Cyphostemma cyphopetalum (Fresen.) Desc. ex Wild &amp; R.B.Drumm.
 Cyphostemma digitatum (Forssk.) Desc.
 Rhoicissus revoilii Planch.
-Violaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Violaceae</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Hybanthus enneaspermus (L.) F.Muell.
 Viola cinerea var. stocksii (Boiss.) W. Becker
-Zygophyllaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_Djibouti</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Liste des espèces indigènes</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Zygophyllaceae</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Balanites aegyptiaca (L.) Delile
 Balanites rotundifolia (Tiegh.) Blatt.
 Fagonia arabica L.
